--- a/data/trans_camb/P1410-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1410-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-3.838679867940258</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.159585135345834</v>
+        <v>1.159585135345835</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-1.346685051835646</v>
@@ -664,7 +664,7 @@
         <v>-3.210935188083758</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.1346009903170797</v>
+        <v>0.1346009903170811</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.216747117249287</v>
+        <v>-6.185456801806803</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.200443865345687</v>
+        <v>-6.318209504480536</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.065410215556509</v>
+        <v>-2.180283124950684</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.641648658674892</v>
+        <v>-3.607570171381078</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.556573629585758</v>
+        <v>-4.963139548713692</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.930062088956271</v>
+        <v>-2.965210189078711</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.992519749023703</v>
+        <v>-3.958969355408629</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.688780860318563</v>
+        <v>-4.751690401520689</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.934058535750609</v>
+        <v>-1.929116493607594</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.707730939023216</v>
+        <v>-1.199511091309142</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.758108488459874</v>
+        <v>-1.791638219015951</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.292844846928573</v>
+        <v>4.374204052614604</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7172644594254896</v>
+        <v>0.8229179604941059</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.6052750280856544</v>
+        <v>-0.466322759624818</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.561085238570363</v>
+        <v>1.552006460214619</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.9542225052763547</v>
+        <v>-0.8798733741270484</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.668044044918621</v>
+        <v>-1.801322324925084</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.01686708605565</v>
+        <v>1.953941062971536</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.5408954537100781</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1633932366011274</v>
+        <v>0.1633932366011276</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.1932791878783013</v>
@@ -769,7 +769,7 @@
         <v>-0.4575471984708551</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.01918017724541378</v>
+        <v>0.01918017724541398</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7001527838760309</v>
+        <v>-0.6826141797163535</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6950484065818731</v>
+        <v>-0.7083752839605416</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.229587883057561</v>
+        <v>-0.2534405319257658</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4343015468915755</v>
+        <v>-0.4224487228468007</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5628932266418003</v>
+        <v>-0.5898222618805937</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3558743002748991</v>
+        <v>-0.366626312368432</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4882842763753892</v>
+        <v>-0.4979781301120612</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5902941378424543</v>
+        <v>-0.5977892785592358</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.236976052548001</v>
+        <v>-0.2426133540025186</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.2853290346764636</v>
+        <v>-0.2002683088027802</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.2810313214809835</v>
+        <v>-0.3017858242587315</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7814518538705565</v>
+        <v>0.7873835064809641</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1330615621178004</v>
+        <v>0.1477370760344537</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.09236369318202461</v>
+        <v>-0.08186791596370582</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2744117626826452</v>
+        <v>0.2799525441625729</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1516996351795795</v>
+        <v>-0.1356996724958382</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2805419973450495</v>
+        <v>-0.2950225759156141</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3286749973765201</v>
+        <v>0.3160557193688264</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.041447906525206</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.182138355901312</v>
+        <v>1.182138355901313</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.276893562907308</v>
@@ -869,7 +869,7 @@
         <v>2.498898111164889</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1.872064991607522</v>
+        <v>1.87206499160752</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.1277488264233469</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.834016943415821</v>
+        <v>-2.928006930517441</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.621972137686283</v>
+        <v>-2.940830636212967</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.7526168148354768</v>
+        <v>-0.8058590220672512</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.2619477219173035</v>
+        <v>-0.3113689012594663</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6884761561465044</v>
+        <v>0.6729021310070923</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4377268006623224</v>
+        <v>0.390563889709763</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.038826538374927</v>
+        <v>-1.084717475870772</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.5131059070911285</v>
+        <v>-0.5523646722795493</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2485822412284068</v>
+        <v>0.1650853117075154</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8348929446813843</v>
+        <v>0.8648631331885384</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.041928814377667</v>
+        <v>0.7531923275414066</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.259267076672759</v>
+        <v>3.071534774821635</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.920546030606959</v>
+        <v>2.761553557272123</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.274228414365696</v>
+        <v>4.419110813190239</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.212451304652059</v>
+        <v>3.335807065404155</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.468420180450038</v>
+        <v>1.335402372127456</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.111426462380719</v>
+        <v>2.093325669304964</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.684610657135833</v>
+        <v>2.612009842179379</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.2200636890928423</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.2497923573400487</v>
+        <v>0.249792357340049</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.4424691459157241</v>
@@ -974,7 +974,7 @@
         <v>0.8659181509694936</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6487079440273108</v>
+        <v>0.6487079440273104</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.03345995376949389</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5071377425897455</v>
+        <v>-0.5237359920621623</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4793004953980311</v>
+        <v>-0.5163870492779518</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1306101625045085</v>
+        <v>-0.1404478344072581</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.08199143202756801</v>
+        <v>-0.0971088728411782</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1813738354595302</v>
+        <v>0.1624528737233406</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08932701814317434</v>
+        <v>0.115500504138234</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2302005175504218</v>
+        <v>-0.2593007092577411</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.129054603759908</v>
+        <v>-0.1299740591413531</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.0430284827468539</v>
+        <v>0.02276378299642539</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2200616047195867</v>
+        <v>0.255733442825861</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2868027318535371</v>
+        <v>0.2030217518790479</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.833641023999394</v>
+        <v>0.8610233214929327</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.414267763151368</v>
+        <v>1.289485036661913</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.021641025876987</v>
+        <v>1.99090989582344</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.496692950616461</v>
+        <v>1.664126506102093</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4636541587071696</v>
+        <v>0.407227300902192</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6627392601318592</v>
+        <v>0.6127884129788094</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.8229980218759303</v>
+        <v>0.8134580137959864</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>1.663920000455434</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.535524558972398</v>
+        <v>2.535524558972399</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.878339223445216</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09248037685196395</v>
+        <v>0.2822983943321604</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.5309640542105299</v>
+        <v>-0.5022049577158181</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.5763821710529009</v>
+        <v>-0.6745450967949754</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3355016799197233</v>
+        <v>0.5002362472509411</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04449001528713497</v>
+        <v>0.04614584099195804</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.166283709867379</v>
+        <v>1.201777097595583</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7584714104940824</v>
+        <v>0.5883378646707291</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2662867840596314</v>
+        <v>0.1564023430119575</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6242207564290917</v>
+        <v>0.6325886421496534</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.859805833883159</v>
+        <v>3.961592048048138</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.907835046395063</v>
+        <v>2.954227982784921</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.333540648721713</v>
+        <v>2.189717987475506</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.422501632361931</v>
+        <v>3.500156374722811</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.599007952372269</v>
+        <v>3.301776532605156</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.730707164689725</v>
+        <v>3.958871189217153</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.131977832292999</v>
+        <v>3.106281258119782</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.613830301778854</v>
+        <v>2.766953873714829</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.658567278000218</v>
+        <v>2.585289753448508</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.5358207503397667</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.6440554056063207</v>
+        <v>0.6440554056063205</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.01603043386416495</v>
+        <v>0.04764541704395361</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1549603427499416</v>
+        <v>-0.1500957950070724</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1552026924281663</v>
+        <v>-0.1682142405507049</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.0802214308489498</v>
+        <v>0.1334789623673963</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.03517570939958643</v>
+        <v>-0.01753903393535909</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4290428109645436</v>
+        <v>0.4515772429396799</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2430108799054872</v>
+        <v>0.1537840484107256</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.05976177722663628</v>
+        <v>0.04402701655219901</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1972885423258555</v>
+        <v>0.2045862330837221</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.488106740326729</v>
+        <v>1.489865149735473</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.081404822066292</v>
+        <v>1.109015665171584</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9609517894968062</v>
+        <v>0.8371365088637589</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.618948058623285</v>
+        <v>2.604771263196109</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.766181892854405</v>
+        <v>2.554124375029574</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.935503977252301</v>
+        <v>3.099794099062735</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.463238162930755</v>
+        <v>1.452523968840207</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.170506857784267</v>
+        <v>1.31589444909986</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.303404542333117</v>
+        <v>1.247185925426107</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.328228161705845</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.281341288698283</v>
+        <v>2.281341288698282</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-1.826375818159686</v>
@@ -1306,7 +1306,7 @@
         <v>1.24452697207167</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.7910060062865453</v>
+        <v>0.7910060062865445</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.033196919287452</v>
+        <v>-1.863590764774201</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.9865086505778676</v>
+        <v>-0.8910126794013621</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1136645740600405</v>
+        <v>0.2043425394150136</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.339858296110354</v>
+        <v>-4.63336107719331</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.687484989699626</v>
+        <v>-1.716917819672999</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.343004678289468</v>
+        <v>-3.448696521960204</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.273186208552878</v>
+        <v>-2.387360163657637</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.6092402716855645</v>
+        <v>-0.690847295853861</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.7485403645780254</v>
+        <v>-0.7133331158716226</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.294601837671594</v>
+        <v>2.355023467575254</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.610066230228698</v>
+        <v>3.821387951507692</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.166429700807594</v>
+        <v>4.529200137929619</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4318156010961098</v>
+        <v>0.2819527720560392</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.73302606780643</v>
+        <v>3.875738934406923</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9623965166897638</v>
+        <v>0.9362191543910979</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8823763869393841</v>
+        <v>0.795729094176049</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.929211844112132</v>
+        <v>2.952403604421222</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.145189946316405</v>
+        <v>2.19574196111922</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.4715455922564138</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.8099184011703587</v>
+        <v>0.8099184011703584</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.5406046844860898</v>
@@ -1411,7 +1411,7 @@
         <v>0.4067345435413536</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2585154634052393</v>
+        <v>0.2585154634052391</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5213433445178416</v>
+        <v>-0.5038959730237645</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2791656710917179</v>
+        <v>-0.2777316505922044</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.03571153047526263</v>
+        <v>0.02300192517398758</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.8644398929601453</v>
+        <v>-0.8531077025470942</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3653176791340221</v>
+        <v>-0.3741189708631084</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.623495433251199</v>
+        <v>-0.6180386704993234</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5775459106288774</v>
+        <v>-0.6013310665535848</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1655953576840734</v>
+        <v>-0.1872833555165561</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1919257515282616</v>
+        <v>-0.1875822467862326</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.310040039887995</v>
+        <v>1.36025989834071</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.01374825800768</v>
+        <v>2.158733495053994</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.189583282597173</v>
+        <v>2.81000579151206</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4580206906431131</v>
+        <v>0.337173137449331</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.933359889355984</v>
+        <v>2.021615185113461</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4779634453027926</v>
+        <v>0.5866001085595902</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4392961878803516</v>
+        <v>0.3546701885881064</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.270731979458646</v>
+        <v>1.435463728107584</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9759076850778301</v>
+        <v>1.062223666227605</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-0.5905119546305244</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.092090835287522</v>
+        <v>1.092090835287523</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.4104723785255365</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.459582249448631</v>
+        <v>-1.477237284659469</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.619184757331916</v>
+        <v>-1.565974662457633</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01783124013669198</v>
+        <v>0.1353921142071445</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.5044106488707139</v>
+        <v>-0.5165298762480577</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.2971456953163554</v>
+        <v>-0.3732960838586568</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.2841579665245648</v>
+        <v>-0.325657144043398</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.7169751962616577</v>
+        <v>-0.7045566469451199</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.6348848399738676</v>
+        <v>-0.651978115229509</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1255913517153536</v>
+        <v>0.1990062987675039</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5085757329971838</v>
+        <v>0.5294008782677379</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3012617187232615</v>
+        <v>0.3948972265857192</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.034822503097762</v>
+        <v>2.106243803439805</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.351927991569561</v>
+        <v>1.392284803840091</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.681180626036575</v>
+        <v>1.6543428135234</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.410322582372362</v>
+        <v>1.404615100234598</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.5962329843816396</v>
+        <v>0.6462561022167439</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.7538709336560765</v>
+        <v>0.7624029301628558</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.486754893600685</v>
+        <v>1.499169299151555</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.1357123600735335</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.2509859851428061</v>
+        <v>0.2509859851428063</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1090820438393655</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2973239079485515</v>
+        <v>-0.2998332306818501</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3308579957517206</v>
+        <v>-0.3240381829231123</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.003757140907021712</v>
+        <v>0.01940189235915524</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1189654891606904</v>
+        <v>-0.1161284572209618</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.06881514764455647</v>
+        <v>-0.09224905785531791</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.06682203981962534</v>
+        <v>-0.08359006913790534</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1645605119224536</v>
+        <v>-0.1602085627145077</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1454584797967031</v>
+        <v>-0.1490621003011874</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.02813071252622225</v>
+        <v>0.04240144880292753</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1275883590041104</v>
+        <v>0.1369326527894189</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.07484700559005875</v>
+        <v>0.1093539487934958</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5252269666789716</v>
+        <v>0.5413978487990738</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.410515440521831</v>
+        <v>0.4215656764699567</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5178650267891922</v>
+        <v>0.5022281130974255</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4336537208696565</v>
+        <v>0.4188307430810561</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1618923511917819</v>
+        <v>0.1791704005167944</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2032034102388128</v>
+        <v>0.2063118478886112</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3958076273185263</v>
+        <v>0.4107042035732066</v>
       </c>
     </row>
     <row r="34">
